--- a/Document/K4 PKG Tool Cleanner System IO List_ver2.0.xlsx
+++ b/Document/K4 PKG Tool Cleanner System IO List_ver2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\PKGSawKit_CleanerSystem_New_K4_2\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06BBB30-9BDF-423F-8DF1-B1887EF49309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD90228-84C7-4F48-BD50-9311639451B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,6 +1094,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,12 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED944E-45E2-43B9-AFC3-7A7261968936}">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1689,22 +1689,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1819,7 +1819,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>37</v>
@@ -1841,7 +1841,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>38</v>
@@ -2032,22 +2032,22 @@
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -2377,7 +2377,7 @@
       <c r="D36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2399,7 +2399,7 @@
       <c r="D37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="27" t="s">
         <v>151</v>
       </c>
       <c r="F37" s="7" t="s">

--- a/Document/K4 PKG Tool Cleanner System IO List_ver2.0.xlsx
+++ b/Document/K4 PKG Tool Cleanner System IO List_ver2.0.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\PKGSawKit_CleanerSystem_New_K4_2\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD90228-84C7-4F48-BD50-9311639451B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009BCADA-610C-4432-B546-F7FBB88FDA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PTCS-IO List_20241122" sheetId="6" r:id="rId1"/>
+    <sheet name="PTCS-IO List_20250423" sheetId="7" r:id="rId1"/>
+    <sheet name="PTCS-IO List_20241122" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="184">
   <si>
     <t>X000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +636,18 @@
   </si>
   <si>
     <t>Tower_Lamp_GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Water-Shoot_Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Air booster sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_Air booster sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1128,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1133,6 +1149,243 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1165860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1592580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6F86BA-7740-409C-88F6-D0AEEB2FD417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11871960" y="2346960"/>
+          <a:ext cx="426720" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7B4B18-B6D3-46D2-A7EE-1DF08903B904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="3177540"/>
+          <a:ext cx="426720" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1630680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D379EAFE-8ECF-47F8-9653-0F357B3E0780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5343525" y="436245"/>
+          <a:ext cx="4431030" cy="3568065"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1630680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A707442-EECA-49D8-B90F-755162F5A301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5343525" y="4244340"/>
+          <a:ext cx="4431030" cy="3568065"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1665,10 +1918,781 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65A6C02-6EE5-4619-B492-8F3BFD4B18F0}">
+  <dimension ref="B2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="12" max="12" width="42.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="L23" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="L24" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="L25" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="L26" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="L28" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="L29" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="L30" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED944E-45E2-43B9-AFC3-7A7261968936}">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
